--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224304.17543955</v>
+        <v>1256882.389954749</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584664</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12434090.29608772</v>
+        <v>12434090.29608771</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6856763.624895823</v>
+        <v>6856763.624895824</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>165.5971668681845</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.15822114686786</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1130,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8.583694061601907</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>298.619603184394</v>
       </c>
       <c r="I11" t="n">
-        <v>34.28709292221073</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,13 +1460,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>67.03858805571426</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.8453877183258</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1537,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3565097727587</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>317.0850799826229</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1655,25 +1657,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>281.9566127403399</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,13 +1697,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -1737,10 +1739,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1844,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>142.347791534774</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>45.20428959175573</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1926,13 +1928,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>87.08036771626205</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -1974,10 +1976,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>62.56525216889505</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1650619561521468</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>29.35275894275121</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>299.6061888514233</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2162,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>114.7196543111938</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2178,7 +2180,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>82.28018995116467</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>92.4784086463653</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226.5674513251595</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>62.29118366165533</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
@@ -2363,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2403,13 +2405,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>97.79341041674166</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -2445,13 +2447,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>43.26585203414596</v>
       </c>
       <c r="X25" t="n">
-        <v>156.8482076906877</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>25.2564838622319</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>320.4699813011878</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2643,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,10 +2687,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>60.36693997173244</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2722,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>204.4892714616868</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>340.4422929262589</v>
+        <v>235.7692185495252</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>61.12808787351286</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2956,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>156.6932352543221</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>176.9747430393467</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>90.0384386340216</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>24.64815776426665</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>59.57056692594212</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>208.5033683834606</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3275,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>117.889549819912</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>321.9499529885861</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>22.91471389864773</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3408,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>40.2412654728257</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>91.35315769505117</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.54798812758653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>327.4395519412469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>82.28018995116467</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>94.38897766723555</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.970532483588</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>54.7772248832668</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>249.1906658919158</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>10.73855991483607</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3864,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>60.36693997173244</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>43.26585203414595</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>91.35315769505117</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>272.9055429616976</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>89.52633327219959</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4065,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4119,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>85.3519305743603</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4138,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>122.3078802415591</v>
+        <v>43.03218749909109</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4413,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4440,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>796.7872899872175</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>561.6351817554748</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4600,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.4763822127447</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="7">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4841,13 +4843,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4890,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>55.04605772994853</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>55.04605772994853</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.544891781203</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="C11" t="n">
-        <v>825.5823748407913</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="D11" t="n">
-        <v>467.3166762340408</v>
+        <v>1728.915465522471</v>
       </c>
       <c r="E11" t="n">
-        <v>81.52842363579657</v>
+        <v>1343.127212924227</v>
       </c>
       <c r="F11" t="n">
-        <v>81.52842363579657</v>
+        <v>932.1413081346193</v>
       </c>
       <c r="G11" t="n">
-        <v>81.52842363579657</v>
+        <v>513.8695406175041</v>
       </c>
       <c r="H11" t="n">
-        <v>81.52842363579657</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X11" t="n">
-        <v>1971.284063821136</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1581.144731845325</v>
+        <v>2087.181164129222</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>814.4261909236466</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
@@ -5118,22 +5120,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P12" t="n">
         <v>2344.749822082216</v>
@@ -5163,7 +5165,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y12" t="n">
-        <v>814.4261909236466</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>566.78431370192</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
         <v>401.7777381738809</v>
@@ -5218,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.2335778049849</v>
+        <v>1730.105558044417</v>
       </c>
       <c r="C14" t="n">
-        <v>212.2335778049849</v>
+        <v>1730.105558044417</v>
       </c>
       <c r="D14" t="n">
-        <v>212.2335778049849</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E14" t="n">
-        <v>212.2335778049849</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>212.2335778049849</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5276,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5303,25 +5305,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.411982645667</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V14" t="n">
-        <v>1328.607323311991</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W14" t="n">
-        <v>975.8386680418764</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X14" t="n">
-        <v>602.3729097807966</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.2335778049849</v>
+        <v>2050.393517622824</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5385,22 +5387,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="16">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2270.376276991246</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="C17" t="n">
-        <v>1901.413760050834</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D17" t="n">
         <v>1757.628112035911</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2299.088923504685</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991246</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="T17" t="n">
-        <v>2270.376276991246</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="U17" t="n">
-        <v>2270.376276991246</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="V17" t="n">
-        <v>2270.376276991246</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="W17" t="n">
-        <v>2270.376276991246</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="X17" t="n">
-        <v>2270.376276991246</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="Y17" t="n">
-        <v>2270.376276991246</v>
+        <v>2115.893810642661</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F18" t="n">
         <v>359.7197682838247</v>
@@ -5592,25 +5594,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5622,22 +5624,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>385.1358488716803</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="C19" t="n">
-        <v>216.1996659437734</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="D19" t="n">
-        <v>216.1996659437734</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="E19" t="n">
-        <v>216.1996659437734</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F19" t="n">
-        <v>216.1996659437734</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G19" t="n">
-        <v>47.06172569028286</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5692,31 +5694,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1401.489110894991</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C20" t="n">
-        <v>1401.489110894991</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D20" t="n">
-        <v>1401.489110894991</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5777,25 +5779,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2161.554709220192</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U20" t="n">
-        <v>2161.554709220192</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V20" t="n">
-        <v>2161.554709220192</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="W20" t="n">
-        <v>2161.554709220192</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="X20" t="n">
-        <v>1788.088950959112</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="Y20" t="n">
-        <v>1788.088950959112</v>
+        <v>1491.071661378887</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="E21" t="n">
         <v>506.2543262569397</v>
@@ -5832,7 +5834,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
         <v>705.6153558007836</v>
@@ -5844,7 +5846,7 @@
         <v>1700.568096156132</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
         <v>2344.749822082216</v>
@@ -5853,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>195.7305522826212</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C22" t="n">
-        <v>195.7305522826212</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D22" t="n">
-        <v>195.7305522826212</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E22" t="n">
-        <v>195.7305522826212</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F22" t="n">
-        <v>195.7305522826212</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G22" t="n">
-        <v>195.7305522826212</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H22" t="n">
-        <v>195.7305522826212</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R22" t="n">
-        <v>412.4263787765005</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S22" t="n">
-        <v>195.7305522826212</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T22" t="n">
-        <v>195.7305522826212</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U22" t="n">
-        <v>195.7305522826212</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V22" t="n">
-        <v>195.7305522826212</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W22" t="n">
-        <v>195.7305522826212</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X22" t="n">
-        <v>195.7305522826212</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y22" t="n">
-        <v>195.7305522826212</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2115.893810642661</v>
+        <v>1332.730790215131</v>
       </c>
       <c r="C23" t="n">
-        <v>2115.893810642661</v>
+        <v>963.7682732747196</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.628112035911</v>
+        <v>605.5025746679692</v>
       </c>
       <c r="E23" t="n">
-        <v>1371.839859437666</v>
+        <v>605.5025746679692</v>
       </c>
       <c r="F23" t="n">
-        <v>960.8539546480588</v>
+        <v>605.5025746679692</v>
       </c>
       <c r="G23" t="n">
         <v>542.5821871309436</v>
@@ -5987,16 +5989,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6011,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082216</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.749822082216</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="Y23" t="n">
-        <v>2344.749822082216</v>
+        <v>1719.330630279253</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>615.8950726940565</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>466.9606630328052</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>466.9606630328052</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>320.4261050596901</v>
       </c>
       <c r="G24" t="n">
         <v>221.6448824165167</v>
@@ -6093,25 +6095,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2284.306083296871</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W25" t="n">
-        <v>2344.749822082216</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X25" t="n">
-        <v>2186.31728906132</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>1965.52470991779</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1287.452521207452</v>
+        <v>1630.903438287023</v>
       </c>
       <c r="C26" t="n">
-        <v>1287.452521207452</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D26" t="n">
         <v>1261.940921346611</v>
@@ -6224,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6260,16 +6262,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>2013.686934738646</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W26" t="n">
-        <v>1660.918279468531</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X26" t="n">
-        <v>1287.452521207452</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="Y26" t="n">
-        <v>1287.452521207452</v>
+        <v>1630.903438287023</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
         <v>1486.172378671464</v>
@@ -6333,22 +6335,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F28" t="n">
-        <v>205.8715591182311</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G28" t="n">
-        <v>205.8715591182311</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H28" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I28" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J28" t="n">
         <v>46.89499644164432</v>
@@ -6403,31 +6405,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2335778049849</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2335778049849</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2335778049849</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E29" t="n">
-        <v>212.2335778049849</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2335778049849</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6487,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645668</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V29" t="n">
-        <v>1282.349095302097</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W29" t="n">
-        <v>929.5804400319828</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="X29" t="n">
-        <v>556.114681770903</v>
+        <v>1033.666099092319</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.2335778049849</v>
+        <v>795.5153732847182</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>982.9090180005296</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>808.4559887194026</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>659.5215790581514</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>500.2841240526959</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>353.7495660795809</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>215.6746802122729</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>108.640539748223</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T30" t="n">
-        <v>2284.306083296871</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U30" t="n">
-        <v>2056.125618951029</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V30" t="n">
-        <v>1820.973510719286</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W30" t="n">
-        <v>1566.736153991084</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X30" t="n">
-        <v>1358.884653785552</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y30" t="n">
-        <v>1151.124355020598</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>205.1709916480303</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>205.1709916480303</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2327.741878547514</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2038.560733293437</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.87624508755</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W31" t="n">
-        <v>1783.87624508755</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>353.0840852304234</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1107.132806435599</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="C32" t="n">
-        <v>1107.132806435599</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="D32" t="n">
-        <v>1107.132806435599</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E32" t="n">
-        <v>721.3445538373544</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F32" t="n">
-        <v>721.3445538373544</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,7 +6721,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
@@ -6731,19 +6733,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>1867.1984047608</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V32" t="n">
-        <v>1867.1984047608</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W32" t="n">
-        <v>1867.1984047608</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X32" t="n">
-        <v>1493.73264649972</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y32" t="n">
-        <v>1493.73264649972</v>
+        <v>465.1667639587595</v>
       </c>
     </row>
     <row r="33">
@@ -6765,13 +6767,13 @@
         <v>139.5078710072816</v>
       </c>
       <c r="F33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6780,22 +6782,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>242.8011754972942</v>
+        <v>2163.101357251976</v>
       </c>
       <c r="C34" t="n">
-        <v>242.8011754972942</v>
+        <v>1994.16517432407</v>
       </c>
       <c r="D34" t="n">
-        <v>242.8011754972942</v>
+        <v>1844.048534911734</v>
       </c>
       <c r="E34" t="n">
-        <v>242.8011754972942</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F34" t="n">
-        <v>242.8011754972942</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8011754972942</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>242.8011754972942</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V34" t="n">
-        <v>242.8011754972942</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W34" t="n">
-        <v>242.8011754972942</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X34" t="n">
-        <v>242.8011754972942</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y34" t="n">
-        <v>242.8011754972942</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1371.839859437666</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="C35" t="n">
-        <v>1371.839859437666</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="D35" t="n">
-        <v>1371.839859437666</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="E35" t="n">
-        <v>1371.839859437666</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="F35" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
         <v>762.591673824455</v>
@@ -6965,22 +6967,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2087.181164129222</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>2087.181164129222</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W35" t="n">
-        <v>1761.979191413478</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X35" t="n">
-        <v>1761.979191413478</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y35" t="n">
-        <v>1371.839859437666</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="36">
@@ -7023,13 +7025,13 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P36" t="n">
         <v>2193.291384540003</v>
@@ -7038,28 +7040,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>2123.072528197426</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U36" t="n">
-        <v>1894.892063851584</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V36" t="n">
-        <v>1659.739955619841</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W36" t="n">
-        <v>1405.50259889164</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I37" t="n">
         <v>46.89499644164432</v>
@@ -7114,31 +7116,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>49.46872182304486</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X37" t="n">
-        <v>49.46872182304486</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2335778049849</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2335778049849</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D38" t="n">
-        <v>212.2335778049849</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2335778049849</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2335778049849</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H38" t="n">
         <v>212.2335778049849</v>
@@ -7175,10 +7177,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319823</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X38" t="n">
-        <v>598.8334178691067</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y38" t="n">
-        <v>598.8334178691067</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="39">
@@ -7254,43 +7256,43 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W39" t="n">
-        <v>1364.854855989795</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X39" t="n">
         <v>1364.854855989795</v>
@@ -7366,16 +7368,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>2344.749822082216</v>
+        <v>2301.282966022528</v>
       </c>
       <c r="W40" t="n">
-        <v>2344.749822082216</v>
+        <v>2011.865795985567</v>
       </c>
       <c r="X40" t="n">
-        <v>2116.760271184199</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y40" t="n">
-        <v>1895.967692040669</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1215.241994772169</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C41" t="n">
-        <v>846.279477831757</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D41" t="n">
-        <v>488.0137792250065</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E41" t="n">
-        <v>102.2255266267623</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7445,16 +7447,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W41" t="n">
-        <v>1991.981166812102</v>
+        <v>1761.979191413478</v>
       </c>
       <c r="X41" t="n">
-        <v>1991.981166812102</v>
+        <v>1761.979191413478</v>
       </c>
       <c r="Y41" t="n">
-        <v>1601.84183483629</v>
+        <v>1371.839859437666</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D42" t="n">
         <v>665.4917812623953</v>
@@ -7497,43 +7499,43 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>2062.095821155272</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.597877284216</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="C43" t="n">
-        <v>90.597877284216</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="D43" t="n">
-        <v>90.597877284216</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I43" t="n">
         <v>46.89499644164432</v>
@@ -7600,19 +7602,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>318.5874281822333</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="V43" t="n">
-        <v>318.5874281822333</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="W43" t="n">
-        <v>318.5874281822333</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="X43" t="n">
-        <v>90.597877284216</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.597877284216</v>
+        <v>515.4926565726222</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1660.918279468531</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C44" t="n">
-        <v>1291.95576252812</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D44" t="n">
-        <v>1291.95576252812</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E44" t="n">
-        <v>906.1675099298755</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>630.5053453221001</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
         <v>392.9020949275671</v>
@@ -7673,25 +7675,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V44" t="n">
-        <v>2013.686934738646</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W44" t="n">
-        <v>1660.918279468531</v>
+        <v>1266.292000724179</v>
       </c>
       <c r="X44" t="n">
-        <v>1660.918279468531</v>
+        <v>1266.292000724179</v>
       </c>
       <c r="Y44" t="n">
-        <v>1660.918279468531</v>
+        <v>876.152668748367</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>743.7701938734156</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C45" t="n">
-        <v>569.3171645922886</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>420.3827549310373</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E45" t="n">
-        <v>261.1452999255818</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7734,16 +7736,16 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7767,10 +7769,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1119.745829658438</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>911.9855308934837</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318.3514033993496</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="C46" t="n">
-        <v>318.3514033993496</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
         <v>46.89499644164432</v>
@@ -7846,10 +7848,10 @@
         <v>318.3514033993496</v>
       </c>
       <c r="X46" t="n">
-        <v>318.3514033993496</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="Y46" t="n">
-        <v>318.3514033993496</v>
+        <v>90.36185250133229</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>349.0484638974528</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q12" t="n">
         <v>57.08896698613911</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9492,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>330.2893092338458</v>
       </c>
       <c r="P21" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>262.7810435509599</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,7 +10904,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11145,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>402.132053707116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711642</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22598,13 +22600,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,22 +22628,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22680,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22838,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22881,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>79.23841170454722</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22917,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C8" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>103.6517501748946</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23151,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.2754303037659</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>28.42552004830515</v>
       </c>
       <c r="I11" t="n">
-        <v>129.3981026274965</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23346,13 +23348,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.83730805897855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23425,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>4.090051078196922</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>65.64876168085766</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>45.79564572979501</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23583,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23625,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23732,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>212.3352500859089</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>28.42552004830539</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
@@ -23814,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>60.36469784837671</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23862,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>83.86871047767411</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.2217350936687</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>352.5776111295106</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>86.63174980463026</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24050,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>42.92542614420709</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>143.6184697512197</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24145,10 +24147,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>46.59991698252625</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5524658530034</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>156.1663903383211</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>351.7978661802886</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24251,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24291,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>38.9007265918932</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24418,19 +24420,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>243.2571463024451</v>
       </c>
       <c r="X25" t="n">
-        <v>68.86144769834942</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>329.4265577584511</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>49.26111937728126</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24531,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>165.5317197306519</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24610,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>10.03959676725376</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
         <v>225.6194376234954</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.79564572979473</v>
+        <v>150.4687201065284</v>
       </c>
     </row>
     <row r="30">
@@ -24777,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.910500182201396</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>10.75332559663352</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
@@ -24889,10 +24891,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>208.78157352414</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>237.1143068025972</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>296.199500022032</v>
       </c>
     </row>
     <row r="33">
@@ -25005,7 +25007,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>120.4210546291172</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
@@ -25014,7 +25016,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>86.86339572062705</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,10 +25095,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
@@ -25132,7 +25134,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>43.63427494036745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25163,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>288.9864959217995</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>27.29101572882695</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>143.6184697512196</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25296,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>165.5317197306518</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>54.06789032788008</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25363,7 +25365,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.0366652245083</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>42.29154873722217</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>143.6184697512197</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>157.306005493684</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.86144769834929</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25606,16 +25608,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>209.1054558247366</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>352.0988208584446</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25687,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>100.0503028254972</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>155.7946237350313</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>137.1803309947772</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>103.1681106124232</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25840,7 +25842,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>194.936176106485</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>133.9705027800138</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>259.7146354452134</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25953,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
@@ -25962,7 +25964,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26007,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>26.30759277665328</v>
+        <v>105.5832855191213</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>415520.7712184747</v>
+        <v>415520.771218475</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652012.5524220488</v>
+        <v>652012.552422049</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652012.5524220485</v>
+        <v>652012.5524220488</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652012.552422049</v>
+        <v>652012.5524220489</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652012.5524220488</v>
+        <v>652012.5524220489</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652012.552422049</v>
+        <v>652012.5524220488</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652012.552422049</v>
+        <v>652012.5524220488</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652012.5524220488</v>
+        <v>652012.5524220485</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>652012.5524220489</v>
+        <v>652012.5524220488</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652012.5524220486</v>
+        <v>652012.552422049</v>
       </c>
     </row>
   </sheetData>
@@ -26323,37 +26325,37 @@
         <v>290813.7097406368</v>
       </c>
       <c r="F2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="G2" t="n">
         <v>290813.7097406368</v>
       </c>
-      <c r="G2" t="n">
-        <v>290813.7097406369</v>
-      </c>
       <c r="H2" t="n">
-        <v>290813.7097406369</v>
+        <v>290813.709740637</v>
       </c>
       <c r="I2" t="n">
         <v>290813.709740637</v>
       </c>
       <c r="J2" t="n">
-        <v>290813.7097406369</v>
+        <v>290813.7097406368</v>
       </c>
       <c r="K2" t="n">
-        <v>290813.7097406369</v>
+        <v>290813.7097406368</v>
       </c>
       <c r="L2" t="n">
-        <v>290813.7097406369</v>
+        <v>290813.7097406368</v>
       </c>
       <c r="M2" t="n">
         <v>290813.7097406369</v>
       </c>
       <c r="N2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="O2" t="n">
         <v>290813.709740637</v>
       </c>
-      <c r="O2" t="n">
-        <v>290813.7097406368</v>
-      </c>
       <c r="P2" t="n">
-        <v>290813.7097406368</v>
+        <v>290813.7097406369</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26454,7 +26456,7 @@
         <v>17955.06337365307</v>
       </c>
       <c r="O4" t="n">
-        <v>17955.06337365306</v>
+        <v>17955.06337365307</v>
       </c>
       <c r="P4" t="n">
         <v>17955.06337365307</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36811.34984817536</v>
+        <v>36811.34984817534</v>
       </c>
       <c r="C6" t="n">
         <v>117580.7813797231</v>
@@ -26531,37 +26533,37 @@
         <v>-114975.4185374155</v>
       </c>
       <c r="F6" t="n">
+        <v>230636.9242415373</v>
+      </c>
+      <c r="G6" t="n">
         <v>230636.9242415372</v>
       </c>
-      <c r="G6" t="n">
-        <v>230636.9242415373</v>
-      </c>
       <c r="H6" t="n">
-        <v>230636.9242415373</v>
+        <v>230636.9242415374</v>
       </c>
       <c r="I6" t="n">
-        <v>230636.9242415374</v>
+        <v>230636.9242415375</v>
       </c>
       <c r="J6" t="n">
-        <v>167576.9816424311</v>
+        <v>167576.9816424309</v>
       </c>
       <c r="K6" t="n">
-        <v>230636.9242415373</v>
+        <v>230636.9242415372</v>
       </c>
       <c r="L6" t="n">
-        <v>230636.9242415373</v>
+        <v>230636.9242415372</v>
       </c>
       <c r="M6" t="n">
         <v>144618.3904214613</v>
       </c>
       <c r="N6" t="n">
+        <v>230636.9242415373</v>
+      </c>
+      <c r="O6" t="n">
         <v>230636.9242415374</v>
       </c>
-      <c r="O6" t="n">
-        <v>230636.9242415372</v>
-      </c>
       <c r="P6" t="n">
-        <v>230636.9242415372</v>
+        <v>230636.9242415373</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26755,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093428</v>
@@ -35498,13 +35500,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
@@ -35972,16 +35974,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36212,10 +36214,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P21" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
@@ -36683,7 +36685,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>300.3322866702078</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
@@ -36917,7 +36919,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
         <v>516.8936174628016</v>
@@ -36926,10 +36928,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37157,7 +37159,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37166,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
         <v>516.8936174628016</v>
@@ -37400,7 +37402,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q36" t="n">
         <v>152.98832074971</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,13 +37636,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37865,7 +37867,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>424.5361405300196</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
@@ -37874,10 +37876,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848623</v>
       </c>
       <c r="L44" t="n">
         <v>373.423817067563</v>
@@ -38102,7 +38104,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
         <v>516.8936174628016</v>
@@ -38111,10 +38113,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1256882.389954749</v>
+        <v>1187294.837113251</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584665</v>
+        <v>460545.8926584662</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12434090.29608771</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6856763.624895824</v>
+        <v>8549355.723335985</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>230.8744955960827</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>68.21015448122991</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>22.62529567903921</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>165.5971668681845</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>65.5944526828373</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.15822114686786</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>86.86708734713932</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>8.583694061601907</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>298.619603184394</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.0514394992095</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
         <v>67.03858805571426</v>
@@ -1505,13 +1505,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>114.5146521661423</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>317.0850799826229</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>140.623451835362</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
@@ -1627,7 +1627,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>166.330739031142</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>90.74557387145754</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>414.089049841944</v>
@@ -1864,7 +1864,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>45.20428959175573</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>87.08036771626205</v>
+        <v>101.6323748713285</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -1973,7 +1973,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>123.5544594002518</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>62.56525216889505</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>45.28466496885243</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>299.6061888514233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>114.7196543111938</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>94.06259899123577</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>77.41754251185411</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>62.29118366165533</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>96.11842267820856</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>7.176779257663802</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>97.79341041674166</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -2450,7 +2450,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2535,13 +2535,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>43.26585203414596</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>320.4699813011878</v>
+        <v>35.11233404742597</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>45.56224815806302</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2724,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>172.2700262432226</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>235.7692185495252</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2879,13 +2879,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>157.1588864692586</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.12240526463283</v>
       </c>
       <c r="G31" t="n">
-        <v>156.6932352543221</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>63.78929411494472</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.0384386340216</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>162.4060574467443</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3164,7 +3164,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>59.57056692594212</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.60419956430029</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>117.889549819912</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>383.380086515022</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.91471389864773</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>165.3169064707586</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>176.5491562993465</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>28.62276946212408</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>82.28018995116467</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V40" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>2.598687523082456</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>249.1906658919158</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.73855991483607</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
@@ -3839,7 +3839,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.60250829719154</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>122.3078802415591</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>164.9689051004912</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>89.52633327219959</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4067,10 +4067,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.03218749909109</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>796.7872899872175</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>561.6351817554748</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W3" t="n">
-        <v>318.1864051113748</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X3" t="n">
-        <v>110.334904905842</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>246.5578745174942</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.9294114938717</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C6" t="n">
-        <v>178.4763822127447</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D6" t="n">
-        <v>29.54197255149339</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E6" t="n">
-        <v>29.54197255149339</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F6" t="n">
-        <v>29.54197255149339</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>29.54197255149339</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>29.54197255149339</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4649,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X6" t="n">
-        <v>728.9050472788936</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.1447485139397</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905681</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C9" t="n">
-        <v>621.3887892094411</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D9" t="n">
-        <v>472.4543795481899</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E9" t="n">
-        <v>313.2169245427344</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="F9" t="n">
-        <v>166.6823665696193</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>27.95154115223485</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2087.181164129222</v>
+        <v>1146.495209163961</v>
       </c>
       <c r="C11" t="n">
-        <v>2087.181164129222</v>
+        <v>1146.495209163961</v>
       </c>
       <c r="D11" t="n">
-        <v>1728.915465522471</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="E11" t="n">
-        <v>1343.127212924227</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F11" t="n">
-        <v>932.1413081346193</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G11" t="n">
-        <v>513.8695406175041</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
         <v>762.5916738244549</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2087.181164129222</v>
+        <v>2126.516044810287</v>
       </c>
       <c r="U11" t="n">
-        <v>2087.181164129222</v>
+        <v>1872.729622695155</v>
       </c>
       <c r="V11" t="n">
-        <v>2087.181164129222</v>
+        <v>1872.729622695155</v>
       </c>
       <c r="W11" t="n">
-        <v>2087.181164129222</v>
+        <v>1519.960967425041</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.181164129222</v>
+        <v>1146.495209163961</v>
       </c>
       <c r="Y11" t="n">
-        <v>2087.181164129222</v>
+        <v>1146.495209163961</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
@@ -5123,22 +5123,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L12" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M12" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5153,19 +5153,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5232,19 +5232,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1730.105558044417</v>
+        <v>937.5592640275081</v>
       </c>
       <c r="C14" t="n">
-        <v>1730.105558044417</v>
+        <v>937.5592640275081</v>
       </c>
       <c r="D14" t="n">
-        <v>1371.839859437666</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5317,13 +5317,13 @@
         <v>2050.393517622824</v>
       </c>
       <c r="W14" t="n">
-        <v>2050.393517622824</v>
+        <v>1697.62486235271</v>
       </c>
       <c r="X14" t="n">
-        <v>2050.393517622824</v>
+        <v>1324.15910409163</v>
       </c>
       <c r="Y14" t="n">
-        <v>2050.393517622824</v>
+        <v>1324.15910409163</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>622.1327649551154</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C15" t="n">
-        <v>447.6797356739884</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D15" t="n">
-        <v>298.7453260127371</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E15" t="n">
-        <v>139.5078710072816</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F15" t="n">
-        <v>114.6107419524668</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G15" t="n">
         <v>114.6107419524668</v>
@@ -5357,25 +5357,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5387,22 +5387,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673872</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401373</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.3481019751835</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5469,19 +5469,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2115.893810642661</v>
+        <v>887.1775691144733</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>887.1775691144733</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>887.1775691144733</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2299.088923504685</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2115.893810642661</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2115.893810642661</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>2115.893810642661</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>2115.893810642661</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W17" t="n">
-        <v>2115.893810642661</v>
+        <v>1260.643327375553</v>
       </c>
       <c r="X17" t="n">
-        <v>2115.893810642661</v>
+        <v>887.1775691144733</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.893810642661</v>
+        <v>887.1775691144733</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="D18" t="n">
-        <v>359.7197682838247</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E18" t="n">
-        <v>359.7197682838247</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
         <v>359.7197682838247</v>
@@ -5597,19 +5597,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
         <v>2344.749822082216</v>
@@ -5621,25 +5621,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>426.1201086060705</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C19" t="n">
-        <v>426.1201086060705</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D19" t="n">
-        <v>426.1201086060705</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E19" t="n">
-        <v>362.9228841930452</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F19" t="n">
-        <v>216.0329366951349</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
         <v>46.89499644164432</v>
@@ -5706,19 +5706,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W19" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X19" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1104.471821314765</v>
+        <v>1564.766976681076</v>
       </c>
       <c r="C20" t="n">
-        <v>735.5093043743535</v>
+        <v>1564.766976681076</v>
       </c>
       <c r="D20" t="n">
-        <v>377.243605767603</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="E20" t="n">
-        <v>377.243605767603</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F20" t="n">
-        <v>377.243605767603</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G20" t="n">
         <v>377.243605767603</v>
@@ -5752,16 +5752,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5779,25 +5779,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T20" t="n">
-        <v>2124.767062713795</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U20" t="n">
-        <v>2124.767062713795</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V20" t="n">
-        <v>1793.704175370224</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W20" t="n">
-        <v>1793.704175370224</v>
+        <v>1564.766976681076</v>
       </c>
       <c r="X20" t="n">
-        <v>1793.704175370224</v>
+        <v>1564.766976681076</v>
       </c>
       <c r="Y20" t="n">
-        <v>1491.071661378887</v>
+        <v>1564.766976681076</v>
       </c>
     </row>
     <row r="21">
@@ -5810,22 +5810,22 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>622.1327649551154</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>622.1327649551154</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>288.4422806685329</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>141.9077226954178</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>141.9077226954178</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5837,19 +5837,19 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1783.87624508755</v>
+        <v>125.0945343324061</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W22" t="n">
-        <v>2055.332652045256</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X22" t="n">
-        <v>1827.343101147238</v>
+        <v>125.0945343324061</v>
       </c>
       <c r="Y22" t="n">
-        <v>1783.87624508755</v>
+        <v>125.0945343324061</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1332.730790215131</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="C23" t="n">
-        <v>963.7682732747196</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D23" t="n">
-        <v>605.5025746679692</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E23" t="n">
-        <v>605.5025746679692</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F23" t="n">
-        <v>605.5025746679692</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2050.393517622824</v>
+        <v>2247.660506245642</v>
       </c>
       <c r="U23" t="n">
-        <v>2050.393517622824</v>
+        <v>1993.874084130509</v>
       </c>
       <c r="V23" t="n">
-        <v>1719.330630279253</v>
+        <v>1993.874084130509</v>
       </c>
       <c r="W23" t="n">
-        <v>1719.330630279253</v>
+        <v>1993.874084130509</v>
       </c>
       <c r="X23" t="n">
-        <v>1719.330630279253</v>
+        <v>1620.40832586943</v>
       </c>
       <c r="Y23" t="n">
-        <v>1719.330630279253</v>
+        <v>1230.268993893618</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>790.3481019751835</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C24" t="n">
-        <v>615.8950726940565</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D24" t="n">
-        <v>466.9606630328052</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>466.9606630328052</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>320.4261050596901</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
         <v>221.6448824165167</v>
@@ -6068,16 +6068,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
         <v>1637.630816213677</v>
@@ -6098,22 +6098,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="25">
@@ -6183,10 +6183,10 @@
         <v>318.5874281822333</v>
       </c>
       <c r="V25" t="n">
-        <v>318.5874281822333</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W25" t="n">
-        <v>274.8845473396617</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
         <v>46.89499644164432</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1630.903438287023</v>
+        <v>1164.47789022513</v>
       </c>
       <c r="C26" t="n">
-        <v>1261.940921346611</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D26" t="n">
-        <v>1261.940921346611</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E26" t="n">
-        <v>876.152668748367</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F26" t="n">
-        <v>465.1667639587595</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6226,10 +6226,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
         <v>762.5916738244549</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V26" t="n">
-        <v>2344.749822082216</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.749822082216</v>
+        <v>1586.544734377561</v>
       </c>
       <c r="X26" t="n">
-        <v>2021.042770262835</v>
+        <v>1551.077730289252</v>
       </c>
       <c r="Y26" t="n">
-        <v>1630.903438287023</v>
+        <v>1551.077730289252</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6317,40 +6317,40 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>2123.072528197426</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
         <v>46.89499644164432</v>
@@ -6417,19 +6417,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>795.5153732847182</v>
+        <v>1348.027890673862</v>
       </c>
       <c r="C29" t="n">
-        <v>795.5153732847182</v>
+        <v>1348.027890673862</v>
       </c>
       <c r="D29" t="n">
-        <v>795.5153732847182</v>
+        <v>1348.027890673862</v>
       </c>
       <c r="E29" t="n">
-        <v>795.5153732847182</v>
+        <v>962.2396380756172</v>
       </c>
       <c r="F29" t="n">
-        <v>795.5153732847182</v>
+        <v>551.2537332860097</v>
       </c>
       <c r="G29" t="n">
         <v>377.243605767603</v>
@@ -6493,22 +6493,22 @@
         <v>2344.749822082217</v>
       </c>
       <c r="T29" t="n">
-        <v>2344.749822082217</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U29" t="n">
-        <v>2090.963399967084</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V29" t="n">
-        <v>1759.900512623513</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W29" t="n">
-        <v>1407.131857353399</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X29" t="n">
-        <v>1033.666099092319</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="Y29" t="n">
-        <v>795.5153732847182</v>
+        <v>1734.627730737983</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>691.56687933201</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>517.113850050883</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G30" t="n">
         <v>221.6448824165167</v>
@@ -6557,7 +6557,7 @@
         <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6566,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1764.783480282509</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1529.631372050766</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1275.394015322565</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1067.542515117032</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>859.782216352078</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>353.0840852304234</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="C31" t="n">
-        <v>353.0840852304234</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="D31" t="n">
-        <v>353.0840852304234</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="E31" t="n">
-        <v>205.1709916480303</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="F31" t="n">
-        <v>205.1709916480303</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
         <v>46.89499644164432</v>
@@ -6651,22 +6651,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U31" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V31" t="n">
-        <v>353.0840852304234</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W31" t="n">
-        <v>353.0840852304234</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="X31" t="n">
-        <v>353.0840852304234</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="Y31" t="n">
-        <v>353.0840852304234</v>
+        <v>90.45298155743507</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>465.1667639587595</v>
+        <v>1273.65434558289</v>
       </c>
       <c r="C32" t="n">
-        <v>465.1667639587595</v>
+        <v>1209.220715163754</v>
       </c>
       <c r="D32" t="n">
-        <v>465.1667639587595</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E32" t="n">
         <v>465.1667639587595</v>
@@ -6727,25 +6727,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645667</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302096</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319823</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X32" t="n">
-        <v>556.1146817709025</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="Y32" t="n">
-        <v>465.1667639587595</v>
+        <v>1660.254185647012</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>910.756968086303</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072816</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H33" t="n">
         <v>46.89499644164432</v>
@@ -6782,49 +6782,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1748.821460805059</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1494.584104076858</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1286.732603871325</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1078.972305106371</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2163.101357251976</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>1994.16517432407</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>1844.048534911734</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M34" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N34" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O34" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>2344.749822082216</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="U34" t="n">
-        <v>2344.749822082216</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="V34" t="n">
-        <v>2344.749822082216</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W34" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.9753497950908</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C35" t="n">
-        <v>165.9753497950908</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D35" t="n">
-        <v>165.9753497950908</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E35" t="n">
-        <v>165.9753497950908</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F35" t="n">
         <v>46.89499644164432</v>
@@ -6937,10 +6937,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
         <v>762.591673824455</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>929.5804400319823</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X35" t="n">
-        <v>556.1146817709025</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.9753497950908</v>
+        <v>1957.49720944078</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>743.7701938734157</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>569.3171645922887</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7019,19 +7019,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
         <v>2193.291384540003</v>
@@ -7043,25 +7043,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T36" t="n">
-        <v>2145.207124136247</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U36" t="n">
-        <v>1917.026659790404</v>
+        <v>1816.986794823915</v>
       </c>
       <c r="V36" t="n">
-        <v>1681.874551558662</v>
+        <v>1581.834686592172</v>
       </c>
       <c r="W36" t="n">
-        <v>1427.63719483046</v>
+        <v>1327.59732986397</v>
       </c>
       <c r="X36" t="n">
-        <v>1219.785694624927</v>
+        <v>1119.745829658438</v>
       </c>
       <c r="Y36" t="n">
-        <v>1012.025395859973</v>
+        <v>911.9855308934837</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>515.4926565726222</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
         <v>46.89499644164432</v>
@@ -7128,19 +7128,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2344.749822082216</v>
+        <v>643.4992450692105</v>
       </c>
       <c r="C38" t="n">
-        <v>2115.893810642661</v>
+        <v>643.4992450692105</v>
       </c>
       <c r="D38" t="n">
-        <v>1757.628112035911</v>
+        <v>643.4992450692105</v>
       </c>
       <c r="E38" t="n">
-        <v>1371.839859437666</v>
+        <v>643.4992450692105</v>
       </c>
       <c r="F38" t="n">
-        <v>960.8539546480588</v>
+        <v>643.4992450692105</v>
       </c>
       <c r="G38" t="n">
-        <v>542.5821871309436</v>
+        <v>225.2274775520953</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7204,22 +7204,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V38" t="n">
-        <v>2344.749822082216</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.749822082216</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="X38" t="n">
-        <v>2344.749822082216</v>
+        <v>1420.238417109144</v>
       </c>
       <c r="Y38" t="n">
-        <v>2344.749822082216</v>
+        <v>1030.099085133332</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7256,19 +7256,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
         <v>2344.749822082216</v>
@@ -7277,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2315.837933736636</v>
       </c>
       <c r="S39" t="n">
-        <v>2344.749822082216</v>
+        <v>2154.604378637192</v>
       </c>
       <c r="T39" t="n">
-        <v>2145.207124136247</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>2344.749822082216</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V40" t="n">
-        <v>2301.282966022528</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W40" t="n">
-        <v>2011.865795985567</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1371.839859437666</v>
+        <v>1237.04330424712</v>
       </c>
       <c r="C41" t="n">
-        <v>1371.839859437666</v>
+        <v>1237.04330424712</v>
       </c>
       <c r="D41" t="n">
-        <v>1371.839859437666</v>
+        <v>878.7776056403695</v>
       </c>
       <c r="E41" t="n">
-        <v>1371.839859437666</v>
+        <v>878.7776056403695</v>
       </c>
       <c r="F41" t="n">
-        <v>960.8539546480588</v>
+        <v>467.791700850762</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>49.5199333336468</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7438,25 +7438,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V41" t="n">
-        <v>2013.686934738646</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W41" t="n">
-        <v>1761.979191413478</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="X41" t="n">
-        <v>1761.979191413478</v>
+        <v>1237.04330424712</v>
       </c>
       <c r="Y41" t="n">
-        <v>1371.839859437666</v>
+        <v>1237.04330424712</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>839.9448105435223</v>
+        <v>842.3446622316584</v>
       </c>
       <c r="C42" t="n">
-        <v>665.4917812623953</v>
+        <v>667.8916329505314</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F42" t="n">
         <v>359.7197682838247</v>
@@ -7493,7 +7493,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
         <v>705.6153558007836</v>
@@ -7514,28 +7514,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2296.666480367881</v>
       </c>
       <c r="S42" t="n">
-        <v>2183.516266982771</v>
+        <v>2135.432925268437</v>
       </c>
       <c r="T42" t="n">
-        <v>1983.973569036802</v>
+        <v>1935.890227322467</v>
       </c>
       <c r="U42" t="n">
-        <v>1755.793104690959</v>
+        <v>1707.709762976624</v>
       </c>
       <c r="V42" t="n">
-        <v>1520.640996459217</v>
+        <v>1472.557654744882</v>
       </c>
       <c r="W42" t="n">
-        <v>1266.403639731015</v>
+        <v>1218.32029801668</v>
       </c>
       <c r="X42" t="n">
-        <v>1058.552139525482</v>
+        <v>1218.32029801668</v>
       </c>
       <c r="Y42" t="n">
-        <v>850.7918407605284</v>
+        <v>1010.559999251726</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>515.4926565726222</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C43" t="n">
-        <v>515.4926565726222</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D43" t="n">
-        <v>515.4926565726222</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E43" t="n">
-        <v>515.4926565726222</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>515.4926565726222</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>346.3547163191316</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
         <v>46.89499644164432</v>
@@ -7572,7 +7572,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200978</v>
@@ -7602,19 +7602,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>515.4926565726222</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>515.4926565726222</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>515.4926565726222</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X43" t="n">
-        <v>515.4926565726222</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y43" t="n">
-        <v>515.4926565726222</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>876.152668748367</v>
+        <v>940.7584696660704</v>
       </c>
       <c r="C44" t="n">
-        <v>876.152668748367</v>
+        <v>571.7959527256587</v>
       </c>
       <c r="D44" t="n">
-        <v>876.152668748367</v>
+        <v>213.5302541189082</v>
       </c>
       <c r="E44" t="n">
-        <v>876.152668748367</v>
+        <v>213.5302541189082</v>
       </c>
       <c r="F44" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7648,16 +7648,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7675,25 +7675,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1941.571949851771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U44" t="n">
-        <v>1687.785527736638</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V44" t="n">
-        <v>1356.722640393067</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="W44" t="n">
-        <v>1266.292000724179</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="X44" t="n">
-        <v>1266.292000724179</v>
+        <v>1717.497641706004</v>
       </c>
       <c r="Y44" t="n">
-        <v>876.152668748367</v>
+        <v>1327.358309730192</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D45" t="n">
-        <v>298.7453260127371</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E45" t="n">
-        <v>139.5078710072816</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F45" t="n">
-        <v>46.89499644164432</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G45" t="n">
         <v>46.89499644164432</v>
@@ -7727,22 +7727,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
         <v>2344.749822082216</v>
@@ -7751,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
         <v>46.89499644164432</v>
@@ -7839,19 +7839,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W46" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X46" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>57.08896698613911</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>330.2893092338458</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,10 +10205,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>390.8949017221348</v>
       </c>
       <c r="P30" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613911</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,7 +10904,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>57.08896698613911</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889585</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>57.0889669861391</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>176.0015501456288</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>60.34421521279029</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22871,22 +22871,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.23841170454722</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.4484560200385</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23117,13 +23117,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>103.6517501748946</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>28.42552004830515</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>1.731492275527927</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23348,13 +23348,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>137.1803309947773</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.64876168085766</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>214.059589785321</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>105.9637990594094</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>31.21653193536758</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>291.1847962008043</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>28.42552004830539</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>60.36469784837671</v>
+        <v>45.81269069331022</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>56.27752078168545</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>83.86871047767411</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
         <v>157.3867970498209</v>
@@ -23946,7 +23946,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>303.9563037485606</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.63174980463026</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>42.92542614420709</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>11.90120006817365</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>89.82927858677373</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24186,16 +24186,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.5524658530034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>351.7978661802886</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>121.6645090965289</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>165.5317197306519</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>38.9007265918932</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>243.2571463024451</v>
+        <v>269.6851342372359</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
@@ -24502,16 +24502,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>49.26111937728126</v>
+        <v>334.6187666310431</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>91.13188885057184</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372359</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.8190235987213</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.4687201065284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24767,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>68.73977323312567</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.2986427582984</v>
       </c>
       <c r="G31" t="n">
-        <v>10.75332559663352</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
@@ -24891,16 +24891,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>301.4835976560628</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.199500022032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>10.30244154157143</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>86.86339572062705</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,16 +25128,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>209.0152380591951</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>288.9864959217995</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>2.857852141031628</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>60.58175323162575</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>54.06789032788008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25368,13 +25368,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>150.4959669333526</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>31.21653193536734</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>143.6184697512197</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V40" t="n">
-        <v>209.1054558247366</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>324.4464357096167</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>100.0503028254972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>155.7946237350313</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>12.23679310029988</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>26.30759277665328</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25842,13 +25842,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>194.936176106485</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.9071406412202</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25915,22 +25915,22 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>259.7146354452134</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H45" t="n">
         <v>105.9637990594094</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>105.5832855191213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,7 +26079,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>415520.7712184748</v>
+        <v>1001985.280980417</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>415520.771218475</v>
+        <v>1001985.280980417</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>415520.771218475</v>
+        <v>1001985.280980417</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652012.552422049</v>
+        <v>652012.5524220486</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652012.552422049</v>
+        <v>652012.5524220488</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652012.5524220489</v>
+        <v>652012.5524220488</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652012.5524220489</v>
+        <v>652012.5524220488</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652012.5524220488</v>
+        <v>652012.5524220485</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>652012.5524220488</v>
+        <v>652012.5524220485</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652012.5524220485</v>
+        <v>652012.5524220486</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>652012.5524220488</v>
+        <v>652012.5524220489</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652012.552422049</v>
+        <v>652012.5524220486</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182776.7397844656</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>182776.7397844656</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>182776.7397844656</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="F2" t="n">
         <v>290813.7097406368</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>290813.7097406369</v>
-      </c>
-      <c r="G2" t="n">
-        <v>290813.7097406368</v>
       </c>
       <c r="H2" t="n">
         <v>290813.709740637</v>
       </c>
       <c r="I2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="J2" t="n">
         <v>290813.709740637</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="L2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="M2" t="n">
         <v>290813.7097406368</v>
       </c>
-      <c r="K2" t="n">
-        <v>290813.7097406368</v>
-      </c>
-      <c r="L2" t="n">
-        <v>290813.7097406368</v>
-      </c>
-      <c r="M2" t="n">
-        <v>290813.7097406369</v>
-      </c>
       <c r="N2" t="n">
-        <v>290813.7097406369</v>
+        <v>290813.709740637</v>
       </c>
       <c r="O2" t="n">
         <v>290813.709740637</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
         <v>17955.06337365307</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36811.34984817534</v>
+        <v>26662.05585460627</v>
       </c>
       <c r="C6" t="n">
-        <v>117580.7813797231</v>
+        <v>107431.4873861541</v>
       </c>
       <c r="D6" t="n">
-        <v>117580.7813797231</v>
+        <v>107431.487386154</v>
       </c>
       <c r="E6" t="n">
-        <v>-114975.4185374155</v>
+        <v>-122282.6577958117</v>
       </c>
       <c r="F6" t="n">
-        <v>230636.9242415373</v>
+        <v>223329.6849831409</v>
       </c>
       <c r="G6" t="n">
-        <v>230636.9242415372</v>
+        <v>223329.684983141</v>
       </c>
       <c r="H6" t="n">
-        <v>230636.9242415374</v>
+        <v>223329.6849831411</v>
       </c>
       <c r="I6" t="n">
-        <v>230636.9242415375</v>
+        <v>223329.684983141</v>
       </c>
       <c r="J6" t="n">
-        <v>167576.9816424309</v>
+        <v>160269.7423840348</v>
       </c>
       <c r="K6" t="n">
-        <v>230636.9242415372</v>
+        <v>223329.684983141</v>
       </c>
       <c r="L6" t="n">
-        <v>230636.9242415372</v>
+        <v>223329.684983141</v>
       </c>
       <c r="M6" t="n">
-        <v>144618.3904214613</v>
+        <v>137311.1511630649</v>
       </c>
       <c r="N6" t="n">
-        <v>230636.9242415373</v>
+        <v>223329.6849831411</v>
       </c>
       <c r="O6" t="n">
-        <v>230636.9242415374</v>
+        <v>223329.6849831411</v>
       </c>
       <c r="P6" t="n">
-        <v>230636.9242415373</v>
+        <v>223329.684983141</v>
       </c>
     </row>
   </sheetData>
@@ -26776,7 +26776,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
         <v>301.9048087062787</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>142.265735089176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>143.9078879708281</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27511,19 +27511,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>164.8278958137803</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,34 +27773,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>333.09447488872</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>115.926505328586</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27994,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34128,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34149,22 +34149,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34219,25 +34219,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35506,10 +35506,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
@@ -35737,16 +35737,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35980,7 +35980,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36214,13 +36214,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36448,7 +36448,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36685,16 +36685,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255822</v>
+        <v>402.8027153709875</v>
       </c>
       <c r="P30" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37159,7 +37159,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37168,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37402,7 +37402,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
         <v>152.98832074971</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37639,7 +37639,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37794,13 +37794,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37873,7 +37873,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
         <v>91.93015837125802</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37955,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848623</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
         <v>373.423817067563</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
@@ -38107,13 +38107,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082065</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
